--- a/data_and_results/monthly data/2099.03.xlsx
+++ b/data_and_results/monthly data/2099.03.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="03" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -24,7 +24,7 @@
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0">
+    <comment ref="B11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -48,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0">
+    <comment ref="C11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -72,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0">
+    <comment ref="D11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -96,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0">
+    <comment ref="F11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0">
+    <comment ref="G11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -144,7 +144,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="H11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +168,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0">
+    <comment ref="I11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -192,7 +192,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M11" authorId="0">
+    <comment ref="N11" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,247 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0">
+    <comment ref="B12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+masarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+media</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+naczynia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+przejazdy</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+spotify</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+basen</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+obiady</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+hbo go</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+teatr</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Autor:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+piekarnia</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G14" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -240,247 +480,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P11" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-teatr</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-masarnia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="C12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-media</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-naczynia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-przejazdy</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-spotify</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H12" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-basen</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-obiady</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G13" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-hbo go</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B14" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Autor:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-piekarnia</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B15" authorId="0">
+    <comment ref="B15" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -504,7 +504,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0">
+    <comment ref="B16" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -533,7 +533,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Jedzenie</t>
   </si>
@@ -571,9 +571,6 @@
     <t>Przychody:</t>
   </si>
   <si>
-    <t>Papiernicze i biurowe</t>
-  </si>
-  <si>
     <t>Procent [%]</t>
   </si>
   <si>
@@ -587,9 +584,6 @@
   </si>
   <si>
     <t>Transport i noclegi</t>
-  </si>
-  <si>
-    <t>Kultura</t>
   </si>
   <si>
     <t>Prez/don:</t>
@@ -622,8 +616,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1302,43 +1296,43 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15.75" thickBot="1">
+    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="24" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B1" s="30">
         <f>E1-A9</f>
@@ -1365,9 +1359,9 @@
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15.75" thickBot="1">
+    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B2" s="31">
         <f>E2-A9</f>
@@ -1375,7 +1369,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -1410,18 +1404,18 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15.75" thickBot="1">
+    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E3" s="29" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="G3" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="22" t="s">
         <v>25</v>
-      </c>
-      <c r="G3" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>27</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1443,7 +1437,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15.75" thickBot="1">
+    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
@@ -1468,18 +1462,18 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B5" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1505,18 +1499,18 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15.75" thickBot="1">
+    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="27">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
-        <v>1686.23</v>
+        <v>1688.73</v>
       </c>
       <c r="B6" s="28">
         <f>SUM(H9+J9+K9+I9+L9+N9+P9+O9)</f>
-        <v>357.5</v>
+        <v>405</v>
       </c>
       <c r="C6" s="28">
         <f>SUM(M9)</f>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="D6" s="32">
         <v>1100</v>
@@ -1545,7 +1539,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15.75" thickBot="1">
+    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1561,9 +1555,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="15.75" thickBot="1">
+    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -1587,11 +1581,11 @@
       </c>
       <c r="G8" s="6">
         <f t="shared" si="0"/>
-        <v>3.1045072669350873</v>
+        <v>3.2239113925864364</v>
       </c>
       <c r="H8" s="6">
         <f t="shared" si="0"/>
-        <v>5.0149732773566793</v>
+        <v>7.4030557903836689</v>
       </c>
       <c r="I8" s="6">
         <f t="shared" si="0"/>
@@ -1611,11 +1605,11 @@
       </c>
       <c r="M8" s="6">
         <f t="shared" si="0"/>
-        <v>2.38808251302699</v>
+        <v>0</v>
       </c>
       <c r="N8" s="6">
         <f t="shared" si="0"/>
-        <v>0.1194041256513495</v>
+        <v>2.38808251302699</v>
       </c>
       <c r="O8" s="6">
         <f t="shared" si="0"/>
@@ -1623,7 +1617,7 @@
       </c>
       <c r="P8" s="6">
         <f t="shared" si="0"/>
-        <v>2.38808251302699</v>
+        <v>0</v>
       </c>
       <c r="Q8" s="6">
         <f t="shared" si="0"/>
@@ -1642,7 +1636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15.75" thickBot="1">
+    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
         <v>2093.73</v>
@@ -1669,11 +1663,11 @@
       </c>
       <c r="G9" s="16">
         <f t="shared" si="1"/>
-        <v>65</v>
+        <v>67.5</v>
       </c>
       <c r="H9" s="16">
         <f t="shared" si="1"/>
-        <v>105</v>
+        <v>155</v>
       </c>
       <c r="I9" s="16">
         <f t="shared" si="1"/>
@@ -1692,12 +1686,12 @@
         <v>0</v>
       </c>
       <c r="M9" s="16">
-        <f t="shared" si="1"/>
+        <f>SUM(M12:M706)</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="16">
+        <f>SUM(N11:N706)</f>
         <v>50</v>
-      </c>
-      <c r="N9" s="16">
-        <f t="shared" si="1"/>
-        <v>2.5</v>
       </c>
       <c r="O9" s="16">
         <f t="shared" si="1"/>
@@ -1705,7 +1699,7 @@
       </c>
       <c r="P9" s="16">
         <f t="shared" si="1"/>
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="Q9" s="16">
         <f t="shared" si="1"/>
@@ -1724,7 +1718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="7" t="s">
         <v>4</v>
       </c>
@@ -1741,7 +1735,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G10" s="14" t="s">
         <v>5</v>
@@ -1750,7 +1744,7 @@
         <v>1</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J10" s="14" t="s">
         <v>2</v>
@@ -1762,23 +1756,19 @@
         <v>7</v>
       </c>
       <c r="M10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="N10" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="O10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>18</v>
-      </c>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
       <c r="Q10" s="23"/>
       <c r="R10" s="23"/>
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:27">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1807,22 +1797,18 @@
       <c r="J11" s="18"/>
       <c r="K11" s="18"/>
       <c r="L11" s="18"/>
-      <c r="M11" s="18">
+      <c r="M11" s="18"/>
+      <c r="N11" s="18">
         <v>50</v>
       </c>
-      <c r="N11" s="18">
-        <v>2.5</v>
-      </c>
       <c r="O11" s="18"/>
-      <c r="P11" s="18">
-        <v>50</v>
-      </c>
+      <c r="P11" s="18"/>
       <c r="Q11" s="18"/>
       <c r="R11" s="18"/>
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:27">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1858,7 +1844,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:27">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1872,7 +1858,9 @@
       <c r="G13" s="18">
         <v>20</v>
       </c>
-      <c r="H13" s="18"/>
+      <c r="H13" s="18">
+        <v>50</v>
+      </c>
       <c r="I13" s="18"/>
       <c r="J13" s="18"/>
       <c r="K13" s="18"/>
@@ -1886,7 +1874,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:27">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1897,7 +1885,9 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
+      <c r="G14" s="18">
+        <v>2.5</v>
+      </c>
       <c r="H14" s="18"/>
       <c r="I14" s="18"/>
       <c r="J14" s="18"/>
@@ -1912,7 +1902,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:27">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -1938,7 +1928,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:27">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -1964,7 +1954,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -1988,7 +1978,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" s="13">
         <v>8</v>
       </c>
@@ -2012,7 +2002,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A19" s="13">
         <v>9</v>
       </c>
@@ -2036,7 +2026,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A20" s="13">
         <v>10</v>
       </c>
@@ -2060,7 +2050,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="13">
         <v>11</v>
       </c>
@@ -2084,7 +2074,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -2108,7 +2098,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A23" s="13">
         <v>13</v>
       </c>
@@ -2132,7 +2122,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A24" s="13">
         <v>14</v>
       </c>
@@ -2156,7 +2146,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" s="13">
         <v>15</v>
       </c>
@@ -2180,7 +2170,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -2204,7 +2194,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A27" s="13">
         <v>17</v>
       </c>
@@ -2228,7 +2218,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A28" s="13">
         <v>18</v>
       </c>
@@ -2252,7 +2242,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A29" s="13">
         <v>19</v>
       </c>
@@ -2276,7 +2266,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A30" s="13">
         <v>20</v>
       </c>
@@ -2300,7 +2290,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" s="13">
         <v>21</v>
       </c>
@@ -2324,7 +2314,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A32" s="13">
         <v>22</v>
       </c>
@@ -2348,7 +2338,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="13">
         <v>23</v>
       </c>
@@ -2372,7 +2362,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="13">
         <v>24</v>
       </c>
@@ -2396,7 +2386,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="13">
         <v>25</v>
       </c>
@@ -2420,7 +2410,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="13">
         <v>26</v>
       </c>
@@ -2444,7 +2434,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A37" s="13">
         <v>27</v>
       </c>
@@ -2468,7 +2458,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="13">
         <v>28</v>
       </c>
@@ -2492,7 +2482,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="13">
         <v>29</v>
       </c>
@@ -2516,7 +2506,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A40" s="13">
         <v>30</v>
       </c>
@@ -2540,7 +2530,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A41" s="13">
         <v>31</v>
       </c>
@@ -2564,7 +2554,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A42" s="13">
         <v>32</v>
       </c>
@@ -2588,7 +2578,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A43" s="13">
         <v>33</v>
       </c>
@@ -2612,7 +2602,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" s="13">
         <v>34</v>
       </c>
@@ -2636,7 +2626,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" s="13">
         <v>35</v>
       </c>
@@ -2660,7 +2650,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" s="13">
         <v>36</v>
       </c>
@@ -2684,7 +2674,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" s="13">
         <v>37</v>
       </c>
@@ -2708,7 +2698,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A48" s="13">
         <v>38</v>
       </c>
@@ -2732,7 +2722,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="1:20">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A49" s="13">
         <v>39</v>
       </c>
@@ -2756,7 +2746,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="1:20">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A50" s="13">
         <v>40</v>
       </c>
@@ -2780,7 +2770,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="1:20">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A51" s="13">
         <v>41</v>
       </c>
@@ -2804,7 +2794,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="1:20">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A52" s="13">
         <v>42</v>
       </c>
@@ -2828,7 +2818,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="1:20">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A53" s="13">
         <v>43</v>
       </c>
@@ -2852,7 +2842,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="1:20">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A54" s="13">
         <v>44</v>
       </c>
@@ -2876,7 +2866,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="1:20">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A55" s="13">
         <v>45</v>
       </c>
@@ -2900,7 +2890,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="1:20">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A56" s="13">
         <v>46</v>
       </c>
@@ -2924,7 +2914,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="1:20">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A57" s="13">
         <v>47</v>
       </c>
@@ -2948,7 +2938,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A58" s="13">
         <v>48</v>
       </c>
@@ -2972,7 +2962,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="1:20">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A59" s="13">
         <v>49</v>
       </c>
@@ -2996,7 +2986,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
     </row>
-    <row r="60" spans="1:20">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A60" s="13">
         <v>50</v>
       </c>
@@ -3020,7 +3010,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
     </row>
-    <row r="61" spans="1:20">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A61" s="13">
         <v>51</v>
       </c>
@@ -3044,7 +3034,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
     </row>
-    <row r="62" spans="1:20">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A62" s="13">
         <v>52</v>
       </c>
@@ -3068,7 +3058,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
     </row>
-    <row r="63" spans="1:20">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A63" s="13">
         <v>53</v>
       </c>
@@ -3092,7 +3082,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
     </row>
-    <row r="64" spans="1:20">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A64" s="13">
         <v>54</v>
       </c>
@@ -3116,7 +3106,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="18"/>
     </row>
-    <row r="65" spans="1:20">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A65" s="13">
         <v>55</v>
       </c>
@@ -3140,7 +3130,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
     </row>
-    <row r="66" spans="1:20">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A66" s="13">
         <v>56</v>
       </c>
@@ -3164,7 +3154,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
     </row>
-    <row r="67" spans="1:20">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A67" s="13">
         <v>57</v>
       </c>
@@ -3188,7 +3178,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
     </row>
-    <row r="68" spans="1:20">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A68" s="13">
         <v>58</v>
       </c>
@@ -3212,7 +3202,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="18"/>
     </row>
-    <row r="69" spans="1:20">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A69" s="13">
         <v>59</v>
       </c>
@@ -3236,7 +3226,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
     </row>
-    <row r="70" spans="1:20">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A70" s="13">
         <v>60</v>
       </c>
@@ -3260,7 +3250,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
     </row>
-    <row r="71" spans="1:20">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A71" s="13">
         <v>61</v>
       </c>
@@ -3284,7 +3274,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:20">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A72" s="13">
         <v>62</v>
       </c>
@@ -3308,7 +3298,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:20">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A73" s="13">
         <v>63</v>
       </c>
@@ -3332,7 +3322,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
     </row>
-    <row r="74" spans="1:20">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A74" s="13">
         <v>64</v>
       </c>
@@ -3356,7 +3346,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="18"/>
     </row>
-    <row r="75" spans="1:20">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A75" s="13">
         <v>65</v>
       </c>
@@ -3380,7 +3370,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
     </row>
-    <row r="76" spans="1:20">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A76" s="13">
         <v>66</v>
       </c>
@@ -3404,7 +3394,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="18"/>
     </row>
-    <row r="77" spans="1:20">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A77" s="13">
         <v>67</v>
       </c>
@@ -3428,7 +3418,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
     </row>
-    <row r="78" spans="1:20">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A78" s="13">
         <v>68</v>
       </c>
@@ -3452,7 +3442,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
     </row>
-    <row r="79" spans="1:20">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A79" s="13">
         <v>69</v>
       </c>
@@ -3476,7 +3466,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
     </row>
-    <row r="80" spans="1:20">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A80" s="13">
         <v>70</v>
       </c>
@@ -3500,7 +3490,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="18"/>
     </row>
-    <row r="81" spans="1:20">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A81" s="13">
         <v>71</v>
       </c>
@@ -3524,7 +3514,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
     </row>
-    <row r="82" spans="1:20">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A82" s="13">
         <v>72</v>
       </c>
@@ -3548,7 +3538,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
     </row>
-    <row r="83" spans="1:20">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A83" s="13">
         <v>73</v>
       </c>
@@ -3572,7 +3562,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
     </row>
-    <row r="84" spans="1:20">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A84" s="13">
         <v>74</v>
       </c>
@@ -3596,7 +3586,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="18"/>
     </row>
-    <row r="85" spans="1:20">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A85" s="13">
         <v>75</v>
       </c>
@@ -3620,7 +3610,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
     </row>
-    <row r="86" spans="1:20">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A86" s="13">
         <v>76</v>
       </c>
@@ -3644,7 +3634,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="18"/>
     </row>
-    <row r="87" spans="1:20">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A87" s="13">
         <v>77</v>
       </c>
@@ -3668,7 +3658,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
     </row>
-    <row r="88" spans="1:20">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A88" s="13">
         <v>78</v>
       </c>
@@ -3692,7 +3682,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="18"/>
     </row>
-    <row r="89" spans="1:20">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A89" s="13">
         <v>79</v>
       </c>
@@ -3716,7 +3706,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
     </row>
-    <row r="90" spans="1:20">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A90" s="13">
         <v>80</v>
       </c>
@@ -3740,7 +3730,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="18"/>
     </row>
-    <row r="91" spans="1:20">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A91" s="13">
         <v>81</v>
       </c>
@@ -3764,7 +3754,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
     </row>
-    <row r="92" spans="1:20">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A92" s="13">
         <v>82</v>
       </c>
@@ -3788,7 +3778,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
     </row>
-    <row r="93" spans="1:20">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A93" s="13">
         <v>83</v>
       </c>
@@ -3812,7 +3802,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
     </row>
-    <row r="94" spans="1:20">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A94" s="13">
         <v>84</v>
       </c>
@@ -3836,7 +3826,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
     </row>
-    <row r="95" spans="1:20">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A95" s="13">
         <v>85</v>
       </c>
@@ -3860,7 +3850,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
     </row>
-    <row r="96" spans="1:20">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A96" s="13">
         <v>86</v>
       </c>
@@ -3884,7 +3874,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="18"/>
     </row>
-    <row r="97" spans="1:20">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A97" s="13">
         <v>87</v>
       </c>
@@ -3908,7 +3898,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
     </row>
-    <row r="98" spans="1:20">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A98" s="13">
         <v>88</v>
       </c>
@@ -3932,7 +3922,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
     </row>
-    <row r="99" spans="1:20">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A99" s="13">
         <v>89</v>
       </c>
@@ -3956,7 +3946,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
     </row>
-    <row r="100" spans="1:20">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A100" s="13">
         <v>90</v>
       </c>
@@ -3980,7 +3970,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="18"/>
     </row>
-    <row r="101" spans="1:20">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A101" s="13">
         <v>91</v>
       </c>
@@ -4004,7 +3994,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
     </row>
-    <row r="102" spans="1:20">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A102" s="13">
         <v>92</v>
       </c>
@@ -4028,7 +4018,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="18"/>
     </row>
-    <row r="103" spans="1:20">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A103" s="13">
         <v>93</v>
       </c>
@@ -4052,7 +4042,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
     </row>
-    <row r="104" spans="1:20">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A104" s="13">
         <v>94</v>
       </c>
@@ -4076,7 +4066,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="18"/>
     </row>
-    <row r="105" spans="1:20">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A105" s="13">
         <v>95</v>
       </c>
@@ -4100,7 +4090,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
     </row>
-    <row r="106" spans="1:20">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A106" s="13">
         <v>96</v>
       </c>
@@ -4124,7 +4114,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="18"/>
     </row>
-    <row r="107" spans="1:20">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A107" s="13">
         <v>97</v>
       </c>
@@ -4148,7 +4138,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
     </row>
-    <row r="108" spans="1:20">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A108" s="13">
         <v>98</v>
       </c>
@@ -4172,7 +4162,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="18"/>
     </row>
-    <row r="109" spans="1:20">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A109" s="13">
         <v>99</v>
       </c>
@@ -4196,7 +4186,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
     </row>
-    <row r="110" spans="1:20">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A110" s="13">
         <v>100</v>
       </c>
@@ -4220,7 +4210,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="18"/>
     </row>
-    <row r="111" spans="1:20">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -4241,7 +4231,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
     </row>
-    <row r="112" spans="1:20">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -4262,7 +4252,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="18"/>
     </row>
-    <row r="113" spans="2:20">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -4283,7 +4273,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
     </row>
-    <row r="114" spans="2:20">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -4304,7 +4294,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="18"/>
     </row>
-    <row r="115" spans="2:20">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -4325,7 +4315,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
     </row>
-    <row r="116" spans="2:20">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -4346,7 +4336,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="18"/>
     </row>
-    <row r="117" spans="2:20">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -4367,7 +4357,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
     </row>
-    <row r="118" spans="2:20">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -4388,7 +4378,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
     </row>
-    <row r="119" spans="2:20">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -4409,7 +4399,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
     </row>
-    <row r="120" spans="2:20">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -4430,7 +4420,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="18"/>
     </row>
-    <row r="121" spans="2:20">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -4451,7 +4441,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
     </row>
-    <row r="122" spans="2:20">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -4472,7 +4462,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="18"/>
     </row>
-    <row r="123" spans="2:20">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -4493,7 +4483,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
     </row>
-    <row r="124" spans="2:20">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -4514,7 +4504,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="18"/>
     </row>
-    <row r="125" spans="2:20">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -4535,7 +4525,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
     </row>
-    <row r="126" spans="2:20">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -4556,7 +4546,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="18"/>
     </row>
-    <row r="127" spans="2:20">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -4577,7 +4567,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
     </row>
-    <row r="128" spans="2:20">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -4598,7 +4588,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
     </row>
-    <row r="129" spans="2:20">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -4619,7 +4609,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
     </row>
-    <row r="130" spans="2:20">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -4640,7 +4630,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="18"/>
     </row>
-    <row r="131" spans="2:20">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -4661,7 +4651,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
     </row>
-    <row r="132" spans="2:20">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -4682,7 +4672,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="18"/>
     </row>
-    <row r="133" spans="2:20">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -4703,7 +4693,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
     </row>
-    <row r="134" spans="2:20">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
@@ -4724,7 +4714,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="18"/>
     </row>
-    <row r="135" spans="2:20">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -4745,7 +4735,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
     </row>
-    <row r="136" spans="2:20">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -4766,7 +4756,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="18"/>
     </row>
-    <row r="137" spans="2:20">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -4787,7 +4777,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
     </row>
-    <row r="138" spans="2:20">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -4808,7 +4798,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
     </row>
-    <row r="139" spans="2:20">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -4829,7 +4819,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
     </row>
-    <row r="140" spans="2:20">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>

--- a/data_and_results/monthly data/2099.03.xlsx
+++ b/data_and_results/monthly data/2099.03.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22228"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CA00EED-54BB-4F40-A1AB-FAD9DFCB3E27}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="11760"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="03" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Autor</author>
   </authors>
   <commentList>
-    <comment ref="B11" authorId="0" shapeId="0">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -48,7 +55,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -96,7 +103,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="0" shapeId="0">
+    <comment ref="F11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -120,7 +127,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -144,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +175,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -192,7 +199,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N11" authorId="0" shapeId="0">
+    <comment ref="N11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -216,7 +223,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="0" shapeId="0">
+    <comment ref="B12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +247,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C12" authorId="0" shapeId="0">
+    <comment ref="C12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
       <text>
         <r>
           <rPr>
@@ -264,7 +271,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D12" authorId="0" shapeId="0">
+    <comment ref="D12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -288,7 +295,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F12" authorId="0" shapeId="0">
+    <comment ref="F12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -312,7 +319,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G12" authorId="0" shapeId="0">
+    <comment ref="G12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -336,7 +343,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H12" authorId="0" shapeId="0">
+    <comment ref="H12" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -360,7 +367,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B13" authorId="0" shapeId="0">
+    <comment ref="B13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
       <text>
         <r>
           <rPr>
@@ -384,7 +391,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G13" authorId="0" shapeId="0">
+    <comment ref="G13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -408,7 +415,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H13" authorId="0" shapeId="0">
+    <comment ref="H13" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000011000000}">
       <text>
         <r>
           <rPr>
@@ -432,7 +439,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B14" authorId="0" shapeId="0">
+    <comment ref="B14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000012000000}">
       <text>
         <r>
           <rPr>
@@ -456,7 +463,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G14" authorId="0" shapeId="0">
+    <comment ref="G14" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000013000000}">
       <text>
         <r>
           <rPr>
@@ -480,7 +487,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B15" authorId="0" shapeId="0">
+    <comment ref="B15" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000014000000}">
       <text>
         <r>
           <rPr>
@@ -504,7 +511,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B16" authorId="0" shapeId="0">
+    <comment ref="B16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000015000000}">
       <text>
         <r>
           <rPr>
@@ -536,9 +543,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>Jedzenie</t>
-  </si>
-  <si>
-    <t>Hobby i przyjemności</t>
   </si>
   <si>
     <t>Podróże</t>
@@ -612,11 +616,14 @@
   <si>
     <t>PIT</t>
   </si>
+  <si>
+    <t>Rozrywka</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1303,43 +1310,43 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.88671875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="12.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.5546875" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="7.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.5703125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="7.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B1" s="30">
         <f>E1-A9</f>
         <v>3021.27</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" s="9">
         <f>SUM(F1:K1)</f>
@@ -1359,9 +1366,9 @@
       <c r="K1" s="18"/>
       <c r="L1" s="19"/>
     </row>
-    <row r="2" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="31">
         <f>E2-A9</f>
@@ -1369,7 +1376,7 @@
       </c>
       <c r="C2" s="4"/>
       <c r="D2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10">
         <f>SUM(F2:K2)</f>
@@ -1404,18 +1411,18 @@
       <c r="Z2" s="4"/>
       <c r="AA2" s="4"/>
     </row>
-    <row r="3" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E3" s="29" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F3" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" s="22" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="22" t="s">
+      <c r="H3" s="22" t="s">
         <v>24</v>
-      </c>
-      <c r="H3" s="22" t="s">
-        <v>25</v>
       </c>
       <c r="I3" s="22"/>
       <c r="J3" s="22"/>
@@ -1437,7 +1444,7 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="4"/>
@@ -1462,18 +1469,18 @@
       <c r="Z4" s="4"/>
       <c r="AA4" s="4"/>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="25" t="s">
-        <v>20</v>
-      </c>
       <c r="C5" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="26" t="s">
         <v>17</v>
-      </c>
-      <c r="D5" s="26" t="s">
-        <v>18</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
@@ -1499,7 +1506,7 @@
       <c r="Z5" s="4"/>
       <c r="AA5" s="4"/>
     </row>
-    <row r="6" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="27">
         <f>SUM(B9+C9+D9+F9+E9+G9)</f>
         <v>1688.73</v>
@@ -1539,7 +1546,7 @@
       <c r="Z6" s="4"/>
       <c r="AA6" s="4"/>
     </row>
-    <row r="7" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="4"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3"/>
@@ -1555,9 +1562,9 @@
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
     </row>
-    <row r="8" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="6">
         <f t="shared" ref="B8:T8" si="0">100*B9/$A$9</f>
@@ -1636,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:27" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:27" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="5">
         <f>SUM(B9:Z9)</f>
         <v>2093.73</v>
@@ -1718,48 +1725,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B10" s="14" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="J10" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="K10" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="L10" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="M10" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="N10" s="15" t="s">
         <v>9</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="G10" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="M10" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N10" s="15" t="s">
-        <v>10</v>
       </c>
       <c r="O10" s="23"/>
       <c r="P10" s="23"/>
@@ -1768,7 +1775,7 @@
       <c r="S10" s="23"/>
       <c r="T10" s="23"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A11" s="13">
         <v>1</v>
       </c>
@@ -1808,7 +1815,7 @@
       <c r="S11" s="18"/>
       <c r="T11" s="18"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A12" s="13">
         <v>2</v>
       </c>
@@ -1844,7 +1851,7 @@
       <c r="S12" s="18"/>
       <c r="T12" s="18"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A13" s="13">
         <v>3</v>
       </c>
@@ -1874,7 +1881,7 @@
       <c r="S13" s="18"/>
       <c r="T13" s="18"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A14" s="13">
         <v>4</v>
       </c>
@@ -1902,7 +1909,7 @@
       <c r="S14" s="18"/>
       <c r="T14" s="18"/>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A15" s="13">
         <v>5</v>
       </c>
@@ -1928,7 +1935,7 @@
       <c r="S15" s="18"/>
       <c r="T15" s="18"/>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A16" s="13">
         <v>6</v>
       </c>
@@ -1954,7 +1961,7 @@
       <c r="S16" s="18"/>
       <c r="T16" s="18"/>
     </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="13">
         <v>7</v>
       </c>
@@ -1978,7 +1985,7 @@
       <c r="S17" s="18"/>
       <c r="T17" s="18"/>
     </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="13">
         <v>8</v>
       </c>
@@ -2002,7 +2009,7 @@
       <c r="S18" s="18"/>
       <c r="T18" s="18"/>
     </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="13">
         <v>9</v>
       </c>
@@ -2026,7 +2033,7 @@
       <c r="S19" s="18"/>
       <c r="T19" s="18"/>
     </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="13">
         <v>10</v>
       </c>
@@ -2050,7 +2057,7 @@
       <c r="S20" s="18"/>
       <c r="T20" s="18"/>
     </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="13">
         <v>11</v>
       </c>
@@ -2074,7 +2081,7 @@
       <c r="S21" s="18"/>
       <c r="T21" s="18"/>
     </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="13">
         <v>12</v>
       </c>
@@ -2098,7 +2105,7 @@
       <c r="S22" s="18"/>
       <c r="T22" s="18"/>
     </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="13">
         <v>13</v>
       </c>
@@ -2122,7 +2129,7 @@
       <c r="S23" s="18"/>
       <c r="T23" s="18"/>
     </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="13">
         <v>14</v>
       </c>
@@ -2146,7 +2153,7 @@
       <c r="S24" s="18"/>
       <c r="T24" s="18"/>
     </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="13">
         <v>15</v>
       </c>
@@ -2170,7 +2177,7 @@
       <c r="S25" s="18"/>
       <c r="T25" s="18"/>
     </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="13">
         <v>16</v>
       </c>
@@ -2194,7 +2201,7 @@
       <c r="S26" s="18"/>
       <c r="T26" s="18"/>
     </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="13">
         <v>17</v>
       </c>
@@ -2218,7 +2225,7 @@
       <c r="S27" s="18"/>
       <c r="T27" s="18"/>
     </row>
-    <row r="28" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="13">
         <v>18</v>
       </c>
@@ -2242,7 +2249,7 @@
       <c r="S28" s="18"/>
       <c r="T28" s="18"/>
     </row>
-    <row r="29" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="13">
         <v>19</v>
       </c>
@@ -2266,7 +2273,7 @@
       <c r="S29" s="18"/>
       <c r="T29" s="18"/>
     </row>
-    <row r="30" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="13">
         <v>20</v>
       </c>
@@ -2290,7 +2297,7 @@
       <c r="S30" s="18"/>
       <c r="T30" s="18"/>
     </row>
-    <row r="31" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="13">
         <v>21</v>
       </c>
@@ -2314,7 +2321,7 @@
       <c r="S31" s="18"/>
       <c r="T31" s="18"/>
     </row>
-    <row r="32" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="13">
         <v>22</v>
       </c>
@@ -2338,7 +2345,7 @@
       <c r="S32" s="18"/>
       <c r="T32" s="18"/>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="13">
         <v>23</v>
       </c>
@@ -2362,7 +2369,7 @@
       <c r="S33" s="18"/>
       <c r="T33" s="18"/>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="13">
         <v>24</v>
       </c>
@@ -2386,7 +2393,7 @@
       <c r="S34" s="18"/>
       <c r="T34" s="18"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="13">
         <v>25</v>
       </c>
@@ -2410,7 +2417,7 @@
       <c r="S35" s="18"/>
       <c r="T35" s="18"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="13">
         <v>26</v>
       </c>
@@ -2434,7 +2441,7 @@
       <c r="S36" s="18"/>
       <c r="T36" s="18"/>
     </row>
-    <row r="37" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="13">
         <v>27</v>
       </c>
@@ -2458,7 +2465,7 @@
       <c r="S37" s="18"/>
       <c r="T37" s="18"/>
     </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="13">
         <v>28</v>
       </c>
@@ -2482,7 +2489,7 @@
       <c r="S38" s="18"/>
       <c r="T38" s="18"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="13">
         <v>29</v>
       </c>
@@ -2506,7 +2513,7 @@
       <c r="S39" s="18"/>
       <c r="T39" s="18"/>
     </row>
-    <row r="40" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="13">
         <v>30</v>
       </c>
@@ -2530,7 +2537,7 @@
       <c r="S40" s="18"/>
       <c r="T40" s="18"/>
     </row>
-    <row r="41" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="13">
         <v>31</v>
       </c>
@@ -2554,7 +2561,7 @@
       <c r="S41" s="18"/>
       <c r="T41" s="18"/>
     </row>
-    <row r="42" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="13">
         <v>32</v>
       </c>
@@ -2578,7 +2585,7 @@
       <c r="S42" s="18"/>
       <c r="T42" s="18"/>
     </row>
-    <row r="43" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="13">
         <v>33</v>
       </c>
@@ -2602,7 +2609,7 @@
       <c r="S43" s="18"/>
       <c r="T43" s="18"/>
     </row>
-    <row r="44" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="13">
         <v>34</v>
       </c>
@@ -2626,7 +2633,7 @@
       <c r="S44" s="18"/>
       <c r="T44" s="18"/>
     </row>
-    <row r="45" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="13">
         <v>35</v>
       </c>
@@ -2650,7 +2657,7 @@
       <c r="S45" s="18"/>
       <c r="T45" s="18"/>
     </row>
-    <row r="46" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="13">
         <v>36</v>
       </c>
@@ -2674,7 +2681,7 @@
       <c r="S46" s="18"/>
       <c r="T46" s="18"/>
     </row>
-    <row r="47" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="13">
         <v>37</v>
       </c>
@@ -2698,7 +2705,7 @@
       <c r="S47" s="18"/>
       <c r="T47" s="18"/>
     </row>
-    <row r="48" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A48" s="13">
         <v>38</v>
       </c>
@@ -2722,7 +2729,7 @@
       <c r="S48" s="18"/>
       <c r="T48" s="18"/>
     </row>
-    <row r="49" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A49" s="13">
         <v>39</v>
       </c>
@@ -2746,7 +2753,7 @@
       <c r="S49" s="18"/>
       <c r="T49" s="18"/>
     </row>
-    <row r="50" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A50" s="13">
         <v>40</v>
       </c>
@@ -2770,7 +2777,7 @@
       <c r="S50" s="18"/>
       <c r="T50" s="18"/>
     </row>
-    <row r="51" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A51" s="13">
         <v>41</v>
       </c>
@@ -2794,7 +2801,7 @@
       <c r="S51" s="18"/>
       <c r="T51" s="18"/>
     </row>
-    <row r="52" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A52" s="13">
         <v>42</v>
       </c>
@@ -2818,7 +2825,7 @@
       <c r="S52" s="18"/>
       <c r="T52" s="18"/>
     </row>
-    <row r="53" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A53" s="13">
         <v>43</v>
       </c>
@@ -2842,7 +2849,7 @@
       <c r="S53" s="18"/>
       <c r="T53" s="18"/>
     </row>
-    <row r="54" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A54" s="13">
         <v>44</v>
       </c>
@@ -2866,7 +2873,7 @@
       <c r="S54" s="18"/>
       <c r="T54" s="18"/>
     </row>
-    <row r="55" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A55" s="13">
         <v>45</v>
       </c>
@@ -2890,7 +2897,7 @@
       <c r="S55" s="18"/>
       <c r="T55" s="18"/>
     </row>
-    <row r="56" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A56" s="13">
         <v>46</v>
       </c>
@@ -2914,7 +2921,7 @@
       <c r="S56" s="18"/>
       <c r="T56" s="18"/>
     </row>
-    <row r="57" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A57" s="13">
         <v>47</v>
       </c>
@@ -2938,7 +2945,7 @@
       <c r="S57" s="18"/>
       <c r="T57" s="18"/>
     </row>
-    <row r="58" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A58" s="13">
         <v>48</v>
       </c>
@@ -2962,7 +2969,7 @@
       <c r="S58" s="18"/>
       <c r="T58" s="18"/>
     </row>
-    <row r="59" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A59" s="13">
         <v>49</v>
       </c>
@@ -2986,7 +2993,7 @@
       <c r="S59" s="18"/>
       <c r="T59" s="18"/>
     </row>
-    <row r="60" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A60" s="13">
         <v>50</v>
       </c>
@@ -3010,7 +3017,7 @@
       <c r="S60" s="18"/>
       <c r="T60" s="18"/>
     </row>
-    <row r="61" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A61" s="13">
         <v>51</v>
       </c>
@@ -3034,7 +3041,7 @@
       <c r="S61" s="18"/>
       <c r="T61" s="18"/>
     </row>
-    <row r="62" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A62" s="13">
         <v>52</v>
       </c>
@@ -3058,7 +3065,7 @@
       <c r="S62" s="18"/>
       <c r="T62" s="18"/>
     </row>
-    <row r="63" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A63" s="13">
         <v>53</v>
       </c>
@@ -3082,7 +3089,7 @@
       <c r="S63" s="18"/>
       <c r="T63" s="18"/>
     </row>
-    <row r="64" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A64" s="13">
         <v>54</v>
       </c>
@@ -3106,7 +3113,7 @@
       <c r="S64" s="18"/>
       <c r="T64" s="18"/>
     </row>
-    <row r="65" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A65" s="13">
         <v>55</v>
       </c>
@@ -3130,7 +3137,7 @@
       <c r="S65" s="18"/>
       <c r="T65" s="18"/>
     </row>
-    <row r="66" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A66" s="13">
         <v>56</v>
       </c>
@@ -3154,7 +3161,7 @@
       <c r="S66" s="18"/>
       <c r="T66" s="18"/>
     </row>
-    <row r="67" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A67" s="13">
         <v>57</v>
       </c>
@@ -3178,7 +3185,7 @@
       <c r="S67" s="18"/>
       <c r="T67" s="18"/>
     </row>
-    <row r="68" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A68" s="13">
         <v>58</v>
       </c>
@@ -3202,7 +3209,7 @@
       <c r="S68" s="18"/>
       <c r="T68" s="18"/>
     </row>
-    <row r="69" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A69" s="13">
         <v>59</v>
       </c>
@@ -3226,7 +3233,7 @@
       <c r="S69" s="18"/>
       <c r="T69" s="18"/>
     </row>
-    <row r="70" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A70" s="13">
         <v>60</v>
       </c>
@@ -3250,7 +3257,7 @@
       <c r="S70" s="18"/>
       <c r="T70" s="18"/>
     </row>
-    <row r="71" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A71" s="13">
         <v>61</v>
       </c>
@@ -3274,7 +3281,7 @@
       <c r="S71" s="18"/>
       <c r="T71" s="18"/>
     </row>
-    <row r="72" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A72" s="13">
         <v>62</v>
       </c>
@@ -3298,7 +3305,7 @@
       <c r="S72" s="18"/>
       <c r="T72" s="18"/>
     </row>
-    <row r="73" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A73" s="13">
         <v>63</v>
       </c>
@@ -3322,7 +3329,7 @@
       <c r="S73" s="18"/>
       <c r="T73" s="18"/>
     </row>
-    <row r="74" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A74" s="13">
         <v>64</v>
       </c>
@@ -3346,7 +3353,7 @@
       <c r="S74" s="18"/>
       <c r="T74" s="18"/>
     </row>
-    <row r="75" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A75" s="13">
         <v>65</v>
       </c>
@@ -3370,7 +3377,7 @@
       <c r="S75" s="18"/>
       <c r="T75" s="18"/>
     </row>
-    <row r="76" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A76" s="13">
         <v>66</v>
       </c>
@@ -3394,7 +3401,7 @@
       <c r="S76" s="18"/>
       <c r="T76" s="18"/>
     </row>
-    <row r="77" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A77" s="13">
         <v>67</v>
       </c>
@@ -3418,7 +3425,7 @@
       <c r="S77" s="18"/>
       <c r="T77" s="18"/>
     </row>
-    <row r="78" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A78" s="13">
         <v>68</v>
       </c>
@@ -3442,7 +3449,7 @@
       <c r="S78" s="18"/>
       <c r="T78" s="18"/>
     </row>
-    <row r="79" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A79" s="13">
         <v>69</v>
       </c>
@@ -3466,7 +3473,7 @@
       <c r="S79" s="18"/>
       <c r="T79" s="18"/>
     </row>
-    <row r="80" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A80" s="13">
         <v>70</v>
       </c>
@@ -3490,7 +3497,7 @@
       <c r="S80" s="18"/>
       <c r="T80" s="18"/>
     </row>
-    <row r="81" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A81" s="13">
         <v>71</v>
       </c>
@@ -3514,7 +3521,7 @@
       <c r="S81" s="18"/>
       <c r="T81" s="18"/>
     </row>
-    <row r="82" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A82" s="13">
         <v>72</v>
       </c>
@@ -3538,7 +3545,7 @@
       <c r="S82" s="18"/>
       <c r="T82" s="18"/>
     </row>
-    <row r="83" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A83" s="13">
         <v>73</v>
       </c>
@@ -3562,7 +3569,7 @@
       <c r="S83" s="18"/>
       <c r="T83" s="18"/>
     </row>
-    <row r="84" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A84" s="13">
         <v>74</v>
       </c>
@@ -3586,7 +3593,7 @@
       <c r="S84" s="18"/>
       <c r="T84" s="18"/>
     </row>
-    <row r="85" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A85" s="13">
         <v>75</v>
       </c>
@@ -3610,7 +3617,7 @@
       <c r="S85" s="18"/>
       <c r="T85" s="18"/>
     </row>
-    <row r="86" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A86" s="13">
         <v>76</v>
       </c>
@@ -3634,7 +3641,7 @@
       <c r="S86" s="18"/>
       <c r="T86" s="18"/>
     </row>
-    <row r="87" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A87" s="13">
         <v>77</v>
       </c>
@@ -3658,7 +3665,7 @@
       <c r="S87" s="18"/>
       <c r="T87" s="18"/>
     </row>
-    <row r="88" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A88" s="13">
         <v>78</v>
       </c>
@@ -3682,7 +3689,7 @@
       <c r="S88" s="18"/>
       <c r="T88" s="18"/>
     </row>
-    <row r="89" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A89" s="13">
         <v>79</v>
       </c>
@@ -3706,7 +3713,7 @@
       <c r="S89" s="18"/>
       <c r="T89" s="18"/>
     </row>
-    <row r="90" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A90" s="13">
         <v>80</v>
       </c>
@@ -3730,7 +3737,7 @@
       <c r="S90" s="18"/>
       <c r="T90" s="18"/>
     </row>
-    <row r="91" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A91" s="13">
         <v>81</v>
       </c>
@@ -3754,7 +3761,7 @@
       <c r="S91" s="18"/>
       <c r="T91" s="18"/>
     </row>
-    <row r="92" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A92" s="13">
         <v>82</v>
       </c>
@@ -3778,7 +3785,7 @@
       <c r="S92" s="18"/>
       <c r="T92" s="18"/>
     </row>
-    <row r="93" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A93" s="13">
         <v>83</v>
       </c>
@@ -3802,7 +3809,7 @@
       <c r="S93" s="18"/>
       <c r="T93" s="18"/>
     </row>
-    <row r="94" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A94" s="13">
         <v>84</v>
       </c>
@@ -3826,7 +3833,7 @@
       <c r="S94" s="18"/>
       <c r="T94" s="18"/>
     </row>
-    <row r="95" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A95" s="13">
         <v>85</v>
       </c>
@@ -3850,7 +3857,7 @@
       <c r="S95" s="18"/>
       <c r="T95" s="18"/>
     </row>
-    <row r="96" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A96" s="13">
         <v>86</v>
       </c>
@@ -3874,7 +3881,7 @@
       <c r="S96" s="18"/>
       <c r="T96" s="18"/>
     </row>
-    <row r="97" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A97" s="13">
         <v>87</v>
       </c>
@@ -3898,7 +3905,7 @@
       <c r="S97" s="18"/>
       <c r="T97" s="18"/>
     </row>
-    <row r="98" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A98" s="13">
         <v>88</v>
       </c>
@@ -3922,7 +3929,7 @@
       <c r="S98" s="18"/>
       <c r="T98" s="18"/>
     </row>
-    <row r="99" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A99" s="13">
         <v>89</v>
       </c>
@@ -3946,7 +3953,7 @@
       <c r="S99" s="18"/>
       <c r="T99" s="18"/>
     </row>
-    <row r="100" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A100" s="13">
         <v>90</v>
       </c>
@@ -3970,7 +3977,7 @@
       <c r="S100" s="18"/>
       <c r="T100" s="18"/>
     </row>
-    <row r="101" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A101" s="13">
         <v>91</v>
       </c>
@@ -3994,7 +4001,7 @@
       <c r="S101" s="18"/>
       <c r="T101" s="18"/>
     </row>
-    <row r="102" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A102" s="13">
         <v>92</v>
       </c>
@@ -4018,7 +4025,7 @@
       <c r="S102" s="18"/>
       <c r="T102" s="18"/>
     </row>
-    <row r="103" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A103" s="13">
         <v>93</v>
       </c>
@@ -4042,7 +4049,7 @@
       <c r="S103" s="18"/>
       <c r="T103" s="18"/>
     </row>
-    <row r="104" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A104" s="13">
         <v>94</v>
       </c>
@@ -4066,7 +4073,7 @@
       <c r="S104" s="18"/>
       <c r="T104" s="18"/>
     </row>
-    <row r="105" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A105" s="13">
         <v>95</v>
       </c>
@@ -4090,7 +4097,7 @@
       <c r="S105" s="18"/>
       <c r="T105" s="18"/>
     </row>
-    <row r="106" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A106" s="13">
         <v>96</v>
       </c>
@@ -4114,7 +4121,7 @@
       <c r="S106" s="18"/>
       <c r="T106" s="18"/>
     </row>
-    <row r="107" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A107" s="13">
         <v>97</v>
       </c>
@@ -4138,7 +4145,7 @@
       <c r="S107" s="18"/>
       <c r="T107" s="18"/>
     </row>
-    <row r="108" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A108" s="13">
         <v>98</v>
       </c>
@@ -4162,7 +4169,7 @@
       <c r="S108" s="18"/>
       <c r="T108" s="18"/>
     </row>
-    <row r="109" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A109" s="13">
         <v>99</v>
       </c>
@@ -4186,7 +4193,7 @@
       <c r="S109" s="18"/>
       <c r="T109" s="18"/>
     </row>
-    <row r="110" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A110" s="13">
         <v>100</v>
       </c>
@@ -4210,7 +4217,7 @@
       <c r="S110" s="18"/>
       <c r="T110" s="18"/>
     </row>
-    <row r="111" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
@@ -4231,7 +4238,7 @@
       <c r="S111" s="18"/>
       <c r="T111" s="18"/>
     </row>
-    <row r="112" spans="1:20" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B112" s="18"/>
       <c r="C112" s="18"/>
       <c r="D112" s="18"/>
@@ -4252,7 +4259,7 @@
       <c r="S112" s="18"/>
       <c r="T112" s="18"/>
     </row>
-    <row r="113" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B113" s="18"/>
       <c r="C113" s="18"/>
       <c r="D113" s="18"/>
@@ -4273,7 +4280,7 @@
       <c r="S113" s="18"/>
       <c r="T113" s="18"/>
     </row>
-    <row r="114" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B114" s="18"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
@@ -4294,7 +4301,7 @@
       <c r="S114" s="18"/>
       <c r="T114" s="18"/>
     </row>
-    <row r="115" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B115" s="18"/>
       <c r="C115" s="18"/>
       <c r="D115" s="18"/>
@@ -4315,7 +4322,7 @@
       <c r="S115" s="18"/>
       <c r="T115" s="18"/>
     </row>
-    <row r="116" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
@@ -4336,7 +4343,7 @@
       <c r="S116" s="18"/>
       <c r="T116" s="18"/>
     </row>
-    <row r="117" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B117" s="18"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
@@ -4357,7 +4364,7 @@
       <c r="S117" s="18"/>
       <c r="T117" s="18"/>
     </row>
-    <row r="118" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
@@ -4378,7 +4385,7 @@
       <c r="S118" s="18"/>
       <c r="T118" s="18"/>
     </row>
-    <row r="119" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B119" s="18"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
@@ -4399,7 +4406,7 @@
       <c r="S119" s="18"/>
       <c r="T119" s="18"/>
     </row>
-    <row r="120" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B120" s="18"/>
       <c r="C120" s="18"/>
       <c r="D120" s="18"/>
@@ -4420,7 +4427,7 @@
       <c r="S120" s="18"/>
       <c r="T120" s="18"/>
     </row>
-    <row r="121" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B121" s="18"/>
       <c r="C121" s="18"/>
       <c r="D121" s="18"/>
@@ -4441,7 +4448,7 @@
       <c r="S121" s="18"/>
       <c r="T121" s="18"/>
     </row>
-    <row r="122" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B122" s="18"/>
       <c r="C122" s="18"/>
       <c r="D122" s="18"/>
@@ -4462,7 +4469,7 @@
       <c r="S122" s="18"/>
       <c r="T122" s="18"/>
     </row>
-    <row r="123" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B123" s="18"/>
       <c r="C123" s="18"/>
       <c r="D123" s="18"/>
@@ -4483,7 +4490,7 @@
       <c r="S123" s="18"/>
       <c r="T123" s="18"/>
     </row>
-    <row r="124" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B124" s="18"/>
       <c r="C124" s="18"/>
       <c r="D124" s="18"/>
@@ -4504,7 +4511,7 @@
       <c r="S124" s="18"/>
       <c r="T124" s="18"/>
     </row>
-    <row r="125" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B125" s="18"/>
       <c r="C125" s="18"/>
       <c r="D125" s="18"/>
@@ -4525,7 +4532,7 @@
       <c r="S125" s="18"/>
       <c r="T125" s="18"/>
     </row>
-    <row r="126" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B126" s="18"/>
       <c r="C126" s="18"/>
       <c r="D126" s="18"/>
@@ -4546,7 +4553,7 @@
       <c r="S126" s="18"/>
       <c r="T126" s="18"/>
     </row>
-    <row r="127" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B127" s="18"/>
       <c r="C127" s="18"/>
       <c r="D127" s="18"/>
@@ -4567,7 +4574,7 @@
       <c r="S127" s="18"/>
       <c r="T127" s="18"/>
     </row>
-    <row r="128" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B128" s="18"/>
       <c r="C128" s="18"/>
       <c r="D128" s="18"/>
@@ -4588,7 +4595,7 @@
       <c r="S128" s="18"/>
       <c r="T128" s="18"/>
     </row>
-    <row r="129" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B129" s="18"/>
       <c r="C129" s="18"/>
       <c r="D129" s="18"/>
@@ -4609,7 +4616,7 @@
       <c r="S129" s="18"/>
       <c r="T129" s="18"/>
     </row>
-    <row r="130" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B130" s="18"/>
       <c r="C130" s="18"/>
       <c r="D130" s="18"/>
@@ -4630,7 +4637,7 @@
       <c r="S130" s="18"/>
       <c r="T130" s="18"/>
     </row>
-    <row r="131" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B131" s="18"/>
       <c r="C131" s="18"/>
       <c r="D131" s="18"/>
@@ -4651,7 +4658,7 @@
       <c r="S131" s="18"/>
       <c r="T131" s="18"/>
     </row>
-    <row r="132" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B132" s="18"/>
       <c r="C132" s="18"/>
       <c r="D132" s="18"/>
@@ -4672,7 +4679,7 @@
       <c r="S132" s="18"/>
       <c r="T132" s="18"/>
     </row>
-    <row r="133" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B133" s="18"/>
       <c r="C133" s="18"/>
       <c r="D133" s="18"/>
@@ -4693,7 +4700,7 @@
       <c r="S133" s="18"/>
       <c r="T133" s="18"/>
     </row>
-    <row r="134" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="134" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B134" s="18"/>
       <c r="C134" s="18"/>
       <c r="D134" s="18"/>
@@ -4714,7 +4721,7 @@
       <c r="S134" s="18"/>
       <c r="T134" s="18"/>
     </row>
-    <row r="135" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="135" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B135" s="18"/>
       <c r="C135" s="18"/>
       <c r="D135" s="18"/>
@@ -4735,7 +4742,7 @@
       <c r="S135" s="18"/>
       <c r="T135" s="18"/>
     </row>
-    <row r="136" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="136" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B136" s="18"/>
       <c r="C136" s="18"/>
       <c r="D136" s="18"/>
@@ -4756,7 +4763,7 @@
       <c r="S136" s="18"/>
       <c r="T136" s="18"/>
     </row>
-    <row r="137" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="137" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B137" s="18"/>
       <c r="C137" s="18"/>
       <c r="D137" s="18"/>
@@ -4777,7 +4784,7 @@
       <c r="S137" s="18"/>
       <c r="T137" s="18"/>
     </row>
-    <row r="138" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="138" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B138" s="18"/>
       <c r="C138" s="18"/>
       <c r="D138" s="18"/>
@@ -4798,7 +4805,7 @@
       <c r="S138" s="18"/>
       <c r="T138" s="18"/>
     </row>
-    <row r="139" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="139" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B139" s="18"/>
       <c r="C139" s="18"/>
       <c r="D139" s="18"/>
@@ -4819,7 +4826,7 @@
       <c r="S139" s="18"/>
       <c r="T139" s="18"/>
     </row>
-    <row r="140" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="140" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B140" s="18"/>
       <c r="C140" s="18"/>
       <c r="D140" s="18"/>
